--- a/Workbook1.xlsx
+++ b/Workbook1.xlsx
@@ -186,10 +186,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$16</c:f>
+              <c:f>Sheet1!$A$2:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>1000.0</c:v>
                 </c:pt>
@@ -234,16 +234,22 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>35000.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40000.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$16</c:f>
+              <c:f>Sheet1!$B$2:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0.1</c:v>
                 </c:pt>
@@ -288,6 +294,12 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>88.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>119.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>152.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1328,10 +1340,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1467,6 +1479,22 @@
         <v>88.8</v>
       </c>
     </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>40000</v>
+      </c>
+      <c r="B17">
+        <v>119.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>45000</v>
+      </c>
+      <c r="B18">
+        <v>152</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:B14">
     <sortCondition ref="A1"/>
